--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_scedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF118FB-89CA-0748-80F3-6E8025E45AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840EBDA-7D45-D843-84DD-CAB63F740258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
-    <sheet name="capability" sheetId="2" r:id="rId2"/>
+    <sheet name="capabilities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,28 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
-  <si>
-    <t>齋藤</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和田</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ワダ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
   <si>
     <t>血圧</t>
     <rPh sb="0" eb="2">
@@ -81,18 +60,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>齋藤</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>山田</t>
+  </si>
+  <si>
+    <t>和田</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>中村</t>
+  </si>
+  <si>
+    <t>小林</t>
+  </si>
+  <si>
+    <t>加藤</t>
+  </si>
+  <si>
+    <t>吉田</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>派遣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和田</t>
-    <rPh sb="0" eb="2">
-      <t>ワダ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +131,17 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,8 +166,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,149 +510,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD14-26CB-D04B-9E73-FD32D63012D0}">
-  <dimension ref="A2:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="O19:Q19"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:11">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -630,65 +943,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72FA7-86A5-7241-88C8-A60DBA476AC3}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840EBDA-7D45-D843-84DD-CAB63F740258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A27CF-B16D-1D43-AADD-C57C9A8892A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
-    <sheet name="capabilities" sheetId="2" r:id="rId2"/>
+    <sheet name="社員リスト" sheetId="3" r:id="rId2"/>
+    <sheet name="割り当て" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
   <si>
     <t>血圧</t>
     <rPh sb="0" eb="2">
@@ -512,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD14-26CB-D04B-9E73-FD32D63012D0}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -547,18 +548,18 @@
         <v>9</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -573,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -582,12 +583,12 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -622,7 +623,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -657,7 +658,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -692,7 +693,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -727,7 +728,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -762,7 +763,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -797,7 +798,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -832,7 +833,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -867,7 +868,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -897,12 +898,12 @@
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -942,11 +943,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA0A9C-8C78-1442-82E5-DE959AE7D6E8}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72FA7-86A5-7241-88C8-A60DBA476AC3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -964,7 +1070,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -973,12 +1079,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -992,7 +1098,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1001,12 +1107,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1020,21 +1126,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1048,13 +1154,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1062,10 +1168,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1076,7 +1182,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1090,30 +1196,30 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A27CF-B16D-1D43-AADD-C57C9A8892A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779E39B-921F-1043-9AA3-A6457306FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD14-26CB-D04B-9E73-FD32D63012D0}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1051,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72FA7-86A5-7241-88C8-A60DBA476AC3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+    <sheetView zoomScale="164" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779E39B-921F-1043-9AA3-A6457306FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E80ED9C-B407-AA48-BF5E-13D40991EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="23">
   <si>
     <t>血圧</t>
     <rPh sb="0" eb="2">
@@ -112,12 +112,49 @@
     <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メディカル</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メディカル</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外来</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外来</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ガイライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +181,22 @@
       <color rgb="FF000000"/>
       <name val="Hiragino Kaku Gothic ProN"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +228,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD14-26CB-D04B-9E73-FD32D63012D0}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -553,28 +609,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -588,10 +644,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -603,42 +659,42 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -650,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>17</v>
@@ -658,22 +714,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -682,71 +738,71 @@
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
@@ -758,21 +814,21 @@
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -781,13 +837,13 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>4</v>
@@ -798,22 +854,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
@@ -822,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -833,22 +889,22 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -857,33 +913,33 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -898,42 +954,77 @@
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -944,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA0A9C-8C78-1442-82E5-DE959AE7D6E8}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1038,6 +1129,22 @@
       </c>
       <c r="B11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72FA7-86A5-7241-88C8-A60DBA476AC3}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1222,6 +1329,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E80ED9C-B407-AA48-BF5E-13D40991EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633F92A-3C7D-484D-AC18-924196228F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="24">
   <si>
     <t>血圧</t>
     <rPh sb="0" eb="2">
@@ -130,20 +130,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外来</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>外来</t>
-    </r>
+    <t>胃カメラ</t>
+    <rPh sb="0" eb="1">
+      <t>イカメラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外来不足</t>
+    <rPh sb="2" eb="4">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外来不足</t>
     <rPh sb="0" eb="2">
       <t>ガイライ</t>
     </rPh>
@@ -220,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD14-26CB-D04B-9E73-FD32D63012D0}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:A13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -612,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -682,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -779,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -802,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
@@ -822,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -993,8 +997,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="A13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1038,7 +1042,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1128,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1140,8 +1144,8 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="A13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1156,15 +1160,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72FA7-86A5-7241-88C8-A60DBA476AC3}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1178,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,8 +1195,11 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,13 +1207,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1216,8 +1229,11 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,8 +1263,11 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1280,11 @@
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +1297,11 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1314,11 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1300,8 +1331,11 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,8 +1348,11 @@
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1328,8 +1365,11 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1342,18 +1382,24 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
